--- a/document/AML Data.xlsx
+++ b/document/AML Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcheng029\Documents\AML PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuang072\git\anti-fraud\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ACCT" sheetId="1" r:id="rId1"/>
@@ -796,8 +796,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1074,24 +1102,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1136,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -1163,7 +1191,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -1189,7 +1217,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -1215,7 +1243,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
@@ -1244,7 +1272,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -1273,7 +1301,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -1300,7 +1328,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>141</v>
       </c>
@@ -1327,7 +1355,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>142</v>
       </c>
@@ -1354,7 +1382,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
@@ -1381,7 +1409,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
@@ -1410,7 +1438,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14" s="4"/>
     </row>
   </sheetData>
@@ -1422,31 +1450,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="28.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>164</v>
       </c>
@@ -1454,7 +1482,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1597,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1625,7 +1653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1681,7 +1709,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1737,7 +1765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1793,7 +1821,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1849,7 +1877,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1905,7 +1933,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1952,7 +1980,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1999,7 +2027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -2046,7 +2074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2093,7 +2121,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -2140,7 +2168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2187,7 +2215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2234,7 +2262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2281,7 +2309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2328,7 +2356,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2375,16 +2403,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>167</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -2416,7 +2444,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -2448,11 +2476,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -2475,7 +2503,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -2498,7 +2526,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -2530,7 +2558,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -2564,6 +2592,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2575,26 +2604,26 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1"/>
+    <col min="13" max="13" width="24.5546875" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" customWidth="1"/>
+    <col min="15" max="15" width="22.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K1" s="4" t="s">
         <v>164</v>
       </c>
@@ -2602,7 +2631,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2649,7 +2678,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -2696,7 +2725,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
@@ -2743,7 +2772,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -2790,7 +2819,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
@@ -2837,7 +2866,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -2884,7 +2913,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -2931,7 +2960,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>120</v>
       </c>
@@ -2978,7 +3007,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -3025,7 +3054,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>122</v>
       </c>
@@ -3072,7 +3101,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -3119,7 +3148,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>124</v>
       </c>
@@ -3166,7 +3195,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -3213,7 +3242,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>126</v>
       </c>
@@ -3260,7 +3289,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>127</v>
       </c>
@@ -3307,7 +3336,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -3354,7 +3383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>129</v>
       </c>
@@ -3401,7 +3430,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -3448,7 +3477,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
@@ -3495,7 +3524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>132</v>
       </c>
@@ -3542,7 +3571,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
@@ -3589,7 +3618,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>134</v>
       </c>
@@ -3636,12 +3665,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="I27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="7"/>
